--- a/Persediaan.xlsx
+++ b/Persediaan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Praktikum Prokom\Tugas besar\Kelompok-1-sistem-pembelian-sepatu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D60C587-E1AD-497E-AF11-482CB4F3EF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AEF0A11-6CF6-4E5F-93B4-C4E98B6EF61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15684" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15684" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Persediaan" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="25">
   <si>
     <t>Kode</t>
   </si>
@@ -89,13 +89,19 @@
   </si>
   <si>
     <t xml:space="preserve">Benassi </t>
+  </si>
+  <si>
+    <t>Stok</t>
+  </si>
+  <si>
+    <t>Harga</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,311 +114,17 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -424,203 +136,28 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - Aksen1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Aksen2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Aksen3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Aksen4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Aksen5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Aksen6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Aksen1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Aksen2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Aksen3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Aksen4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Aksen5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Aksen6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Aksen1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Aksen2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Aksen3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Aksen4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Aksen5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Aksen6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Aksen1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Aksen2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Aksen3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Aksen4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Aksen5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Aksen6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Baik" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Buruk" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Catatan" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Judul" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Judul 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Judul 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Judul 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Judul 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Keluaran" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Masukan" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Netral" xfId="8" builtinId="28" customBuiltin="1"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Perhitungan" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Sel Periksa" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Sel Tertaut" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Teks Penjelasan" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Teks Peringatan" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -633,7 +170,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -667,20 +204,20 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -708,31 +245,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -760,23 +280,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -788,154 +291,186 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E91"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -945,1271 +480,1817 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>11111111</v>
+      </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>7</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>11111112</v>
+      </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>7</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>11111113</v>
+      </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>7</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>11111114</v>
+      </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>7</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>11111115</v>
+      </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>7</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>11111116</v>
+      </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>7</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>42</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>11111117</v>
+      </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>7</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>43</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>11111118</v>
+      </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>7</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>44</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>11111119</v>
+      </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>7</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>45</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>11111120</v>
+      </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11111121</v>
+      </c>
       <c r="B12" t="s">
         <v>5</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>38</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>11111122</v>
+      </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
         <v>39</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>11111123</v>
+      </c>
       <c r="B14" t="s">
         <v>5</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
         <v>40</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>11111124</v>
+      </c>
       <c r="B15" t="s">
         <v>5</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="3">
         <v>41</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>11111125</v>
+      </c>
       <c r="B16" t="s">
         <v>5</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="3">
         <v>42</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>11111126</v>
+      </c>
       <c r="B17" t="s">
         <v>5</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="3">
         <v>43</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>11111127</v>
+      </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="3">
         <v>44</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>11111128</v>
+      </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="3">
         <v>45</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>11111129</v>
+      </c>
       <c r="B20" t="s">
         <v>5</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="3">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>11111130</v>
+      </c>
       <c r="B21" t="s">
         <v>5</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="3">
         <v>38</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>11111131</v>
+      </c>
       <c r="B22" t="s">
         <v>5</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="3">
         <v>39</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>11111132</v>
+      </c>
       <c r="B23" t="s">
         <v>5</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="3">
         <v>40</v>
       </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>11111133</v>
+      </c>
       <c r="B24" t="s">
         <v>5</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="3">
         <v>41</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>11111134</v>
+      </c>
       <c r="B25" t="s">
         <v>5</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="3">
         <v>42</v>
       </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>11111135</v>
+      </c>
       <c r="B26" t="s">
         <v>5</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="3">
         <v>43</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>11111136</v>
+      </c>
       <c r="B27" t="s">
         <v>5</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="3">
         <v>44</v>
       </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>11111137</v>
+      </c>
       <c r="B28" t="s">
         <v>5</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="3">
         <v>45</v>
       </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>11111138</v>
+      </c>
       <c r="B29" t="s">
         <v>5</v>
       </c>
       <c r="C29" t="s">
         <v>11</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="3">
         <v>37</v>
       </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>11111139</v>
+      </c>
       <c r="B30" t="s">
         <v>5</v>
       </c>
       <c r="C30" t="s">
         <v>11</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="3">
         <v>38</v>
       </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>11111140</v>
+      </c>
       <c r="B31" t="s">
         <v>5</v>
       </c>
       <c r="C31" t="s">
         <v>11</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="3">
         <v>39</v>
       </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>11111141</v>
+      </c>
       <c r="B32" t="s">
         <v>5</v>
       </c>
       <c r="C32" t="s">
         <v>11</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="3">
         <v>40</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>11111142</v>
+      </c>
       <c r="B33" t="s">
         <v>5</v>
       </c>
       <c r="C33" t="s">
         <v>11</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="3">
         <v>41</v>
       </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>11111143</v>
+      </c>
       <c r="B34" t="s">
         <v>5</v>
       </c>
       <c r="C34" t="s">
         <v>11</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="3">
         <v>42</v>
       </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>11111144</v>
+      </c>
       <c r="B35" t="s">
         <v>5</v>
       </c>
       <c r="C35" t="s">
         <v>11</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="3">
         <v>43</v>
       </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>11111145</v>
+      </c>
       <c r="B36" t="s">
         <v>5</v>
       </c>
       <c r="C36" t="s">
         <v>11</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="3">
         <v>44</v>
       </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>11111146</v>
+      </c>
       <c r="B37" t="s">
         <v>5</v>
       </c>
       <c r="C37" t="s">
         <v>11</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="3">
         <v>45</v>
       </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>11111147</v>
+      </c>
       <c r="B38" t="s">
         <v>13</v>
       </c>
       <c r="C38" t="s">
         <v>14</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="3">
         <v>550</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="3">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>11111148</v>
+      </c>
       <c r="B39" t="s">
         <v>13</v>
       </c>
       <c r="C39" t="s">
         <v>14</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="3">
         <v>550</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="3">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>11111149</v>
+      </c>
       <c r="B40" t="s">
         <v>13</v>
       </c>
       <c r="C40" t="s">
         <v>14</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="3">
         <v>550</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="3">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>11111150</v>
+      </c>
       <c r="B41" t="s">
         <v>13</v>
       </c>
       <c r="C41" t="s">
         <v>14</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="3">
         <v>550</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="3">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>11111151</v>
+      </c>
       <c r="B42" t="s">
         <v>13</v>
       </c>
       <c r="C42" t="s">
         <v>14</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="3">
         <v>550</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="3">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>11111152</v>
+      </c>
       <c r="B43" t="s">
         <v>13</v>
       </c>
       <c r="C43" t="s">
         <v>14</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="3">
         <v>550</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="3">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>11111153</v>
+      </c>
       <c r="B44" t="s">
         <v>13</v>
       </c>
       <c r="C44" t="s">
         <v>14</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="3">
         <v>550</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="3">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>11111154</v>
+      </c>
       <c r="B45" t="s">
         <v>13</v>
       </c>
       <c r="C45" t="s">
         <v>14</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="3">
         <v>550</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="3">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>11111155</v>
+      </c>
       <c r="B46" t="s">
         <v>13</v>
       </c>
       <c r="C46" t="s">
         <v>14</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="3">
         <v>550</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="3">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>11111156</v>
+      </c>
       <c r="B47" t="s">
         <v>13</v>
       </c>
       <c r="C47" t="s">
         <v>9</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="3">
         <v>37</v>
       </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>11111157</v>
+      </c>
       <c r="B48" t="s">
         <v>13</v>
       </c>
       <c r="C48" t="s">
         <v>9</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="3">
         <v>38</v>
       </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>11111158</v>
+      </c>
       <c r="B49" t="s">
         <v>13</v>
       </c>
       <c r="C49" t="s">
         <v>9</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="3">
         <v>39</v>
       </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>11111159</v>
+      </c>
       <c r="B50" t="s">
         <v>13</v>
       </c>
       <c r="C50" t="s">
         <v>9</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="3">
         <v>40</v>
       </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>11111160</v>
+      </c>
       <c r="B51" t="s">
         <v>13</v>
       </c>
       <c r="C51" t="s">
         <v>9</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="3">
         <v>41</v>
       </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>11111161</v>
+      </c>
       <c r="B52" t="s">
         <v>13</v>
       </c>
       <c r="C52" t="s">
         <v>9</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="3">
         <v>42</v>
       </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>11111162</v>
+      </c>
       <c r="B53" t="s">
         <v>13</v>
       </c>
       <c r="C53" t="s">
         <v>9</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="3">
         <v>43</v>
       </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>11111163</v>
+      </c>
       <c r="B54" t="s">
         <v>13</v>
       </c>
       <c r="C54" t="s">
         <v>9</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="3">
         <v>44</v>
       </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>11111164</v>
+      </c>
       <c r="B55" t="s">
         <v>13</v>
       </c>
       <c r="C55" t="s">
         <v>9</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="3">
         <v>45</v>
       </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>11111165</v>
+      </c>
       <c r="B56" t="s">
         <v>13</v>
       </c>
       <c r="C56" t="s">
         <v>16</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="3">
         <v>37</v>
       </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>11111166</v>
+      </c>
       <c r="B57" t="s">
         <v>13</v>
       </c>
       <c r="C57" t="s">
         <v>16</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="3">
         <v>38</v>
       </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>11111167</v>
+      </c>
       <c r="B58" t="s">
         <v>13</v>
       </c>
       <c r="C58" t="s">
         <v>16</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="3">
         <v>39</v>
       </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>11111168</v>
+      </c>
       <c r="B59" t="s">
         <v>13</v>
       </c>
       <c r="C59" t="s">
         <v>16</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="3">
         <v>40</v>
       </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>11111169</v>
+      </c>
       <c r="B60" t="s">
         <v>13</v>
       </c>
       <c r="C60" t="s">
         <v>16</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="3">
         <v>41</v>
       </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>11111170</v>
+      </c>
       <c r="B61" t="s">
         <v>13</v>
       </c>
       <c r="C61" t="s">
         <v>16</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="3">
         <v>42</v>
       </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>11111171</v>
+      </c>
       <c r="B62" t="s">
         <v>13</v>
       </c>
       <c r="C62" t="s">
         <v>16</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="3">
         <v>43</v>
       </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>11111172</v>
+      </c>
       <c r="B63" t="s">
         <v>13</v>
       </c>
       <c r="C63" t="s">
         <v>16</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="3">
         <v>44</v>
       </c>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>11111173</v>
+      </c>
       <c r="B64" t="s">
         <v>13</v>
       </c>
       <c r="C64" t="s">
         <v>16</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="3">
         <v>45</v>
       </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>11111174</v>
+      </c>
       <c r="B65" t="s">
         <v>13</v>
       </c>
       <c r="C65" t="s">
         <v>16</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="3">
         <v>37</v>
       </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>11111175</v>
+      </c>
       <c r="B66" t="s">
         <v>13</v>
       </c>
       <c r="C66" t="s">
         <v>16</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="3">
         <v>38</v>
       </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>11111176</v>
+      </c>
       <c r="B67" t="s">
         <v>13</v>
       </c>
       <c r="C67" t="s">
         <v>16</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="3">
         <v>39</v>
       </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>11111177</v>
+      </c>
       <c r="B68" t="s">
         <v>13</v>
       </c>
       <c r="C68" t="s">
         <v>16</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="3">
         <v>40</v>
       </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>11111178</v>
+      </c>
       <c r="B69" t="s">
         <v>13</v>
       </c>
       <c r="C69" t="s">
         <v>16</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="3">
         <v>41</v>
       </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>11111179</v>
+      </c>
       <c r="B70" t="s">
         <v>13</v>
       </c>
       <c r="C70" t="s">
         <v>16</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="3">
         <v>42</v>
       </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F70">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>11111180</v>
+      </c>
       <c r="B71" t="s">
         <v>13</v>
       </c>
       <c r="C71" t="s">
         <v>16</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="3">
         <v>43</v>
       </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>11111181</v>
+      </c>
       <c r="B72" t="s">
         <v>13</v>
       </c>
       <c r="C72" t="s">
         <v>16</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="3">
         <v>44</v>
       </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>11111182</v>
+      </c>
       <c r="B73" t="s">
         <v>13</v>
       </c>
       <c r="C73" t="s">
         <v>16</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="3">
         <v>45</v>
       </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F73">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>11111183</v>
+      </c>
       <c r="B74" t="s">
         <v>19</v>
       </c>
       <c r="C74" t="s">
         <v>16</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="3">
         <v>37</v>
       </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>11111184</v>
+      </c>
       <c r="B75" t="s">
         <v>19</v>
       </c>
       <c r="C75" t="s">
         <v>16</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="3">
         <v>38</v>
       </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>11111185</v>
+      </c>
       <c r="B76" t="s">
         <v>19</v>
       </c>
       <c r="C76" t="s">
         <v>16</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="3">
         <v>39</v>
       </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F76">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>11111186</v>
+      </c>
       <c r="B77" t="s">
         <v>19</v>
       </c>
       <c r="C77" t="s">
         <v>16</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="3">
         <v>40</v>
       </c>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>11111187</v>
+      </c>
       <c r="B78" t="s">
         <v>19</v>
       </c>
       <c r="C78" t="s">
         <v>16</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="3">
         <v>41</v>
       </c>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>11111188</v>
+      </c>
       <c r="B79" t="s">
         <v>19</v>
       </c>
       <c r="C79" t="s">
         <v>16</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="3">
         <v>42</v>
       </c>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F79">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>11111189</v>
+      </c>
       <c r="B80" t="s">
         <v>19</v>
       </c>
       <c r="C80" t="s">
         <v>16</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="3">
         <v>43</v>
       </c>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>11111190</v>
+      </c>
       <c r="B81" t="s">
         <v>19</v>
       </c>
       <c r="C81" t="s">
         <v>16</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="3">
         <v>44</v>
       </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>11111191</v>
+      </c>
       <c r="B82" t="s">
         <v>19</v>
       </c>
       <c r="C82" t="s">
         <v>16</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="3">
         <v>45</v>
       </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F82">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>11111192</v>
+      </c>
       <c r="B83" t="s">
         <v>19</v>
       </c>
       <c r="C83" t="s">
         <v>21</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="3">
         <v>37</v>
       </c>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>11111193</v>
+      </c>
       <c r="B84" t="s">
         <v>19</v>
       </c>
       <c r="C84" t="s">
         <v>21</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="3">
         <v>38</v>
       </c>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F84">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>11111194</v>
+      </c>
       <c r="B85" t="s">
         <v>19</v>
       </c>
       <c r="C85" t="s">
         <v>21</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="3">
         <v>39</v>
       </c>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F85">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>11111195</v>
+      </c>
       <c r="B86" t="s">
         <v>19</v>
       </c>
       <c r="C86" t="s">
         <v>21</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="3">
         <v>40</v>
       </c>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>11111196</v>
+      </c>
       <c r="B87" t="s">
         <v>19</v>
       </c>
       <c r="C87" t="s">
         <v>21</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="3">
         <v>41</v>
       </c>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F87">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>11111197</v>
+      </c>
       <c r="B88" t="s">
         <v>19</v>
       </c>
       <c r="C88" t="s">
         <v>21</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="3">
         <v>42</v>
       </c>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F88">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>11111198</v>
+      </c>
       <c r="B89" t="s">
         <v>19</v>
       </c>
       <c r="C89" t="s">
         <v>21</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="3">
         <v>43</v>
       </c>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>11111199</v>
+      </c>
       <c r="B90" t="s">
         <v>19</v>
       </c>
       <c r="C90" t="s">
         <v>21</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="3">
         <v>44</v>
       </c>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F90">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>11111200</v>
+      </c>
       <c r="B91" t="s">
         <v>19</v>
       </c>
       <c r="C91" t="s">
         <v>21</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="3">
         <v>45</v>
+      </c>
+      <c r="F91">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
